--- a/media/files/import-template/building-group-import.xlsx
+++ b/media/files/import-template/building-group-import.xlsx
@@ -383,13 +383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Tên chung cư</v>
+        <v>ten_chung_cu</v>
       </c>
       <c r="B1" t="str">
-        <v>Quản lý</v>
+        <v>quan_ly</v>
       </c>
       <c r="C1" t="str">
-        <v>Địa chỉ</v>
+        <v>dia_chi</v>
       </c>
     </row>
   </sheetData>
@@ -401,36 +401,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>ID</v>
+        <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>Họ tên</v>
+        <v>ho_ten</v>
       </c>
       <c r="C1" t="str">
-        <v>SĐT</v>
+        <v>sdt</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>123131</v>
+        <v>5a92c18b1b96ed20778789ec</v>
       </c>
       <c r="B2" t="str">
-        <v>Nguyễn Viết Thịnh</v>
-      </c>
-      <c r="C2" t="str">
-        <v>01626878789</v>
+        <v>Admin Admin</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>5a9eb2f05e35871b15fdbe2f</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Client1 Client1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>5a9eb30c5e35871b15fdbe30</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Client2 Client2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>5aad4be6fb3eeb61cf09ee32</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Cu dan  1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5aad4c6609d5c46214eda33b</v>
+      </c>
+      <c r="B6" t="str">
+        <v>cudan 2 cudan2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>5aad4dd0bb5a8d62941ef24d</v>
+      </c>
+      <c r="B7" t="str">
+        <v>cudan 3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>5aad4e340116bd6333a179d1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>cudan 4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>5aad4e7a0419486368d668f2</v>
+      </c>
+      <c r="B9" t="str">
+        <v>cudan5 cudan5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>5aad4f441fc5be6401d7d0ee</v>
+      </c>
+      <c r="B10" t="str">
+        <v>fdafadf fdafa</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>5aad4f8dc93218642f6e3d1d</v>
+      </c>
+      <c r="B11" t="str">
+        <v>cudan 6</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/media/files/import-template/building-group-import.xlsx
+++ b/media/files/import-template/building-group-import.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,87 +419,29 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>5a92c18b1b96ed20778789ec</v>
+        <v>5abbca6d4abc5830d5261c2d</v>
       </c>
       <c r="B2" t="str">
-        <v>Admin Admin</v>
+        <v>Nguyễn Viết Thịnh</v>
+      </c>
+      <c r="C2" t="str">
+        <v>01626878789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>5a9eb2f05e35871b15fdbe2f</v>
+        <v>5abbce6759c59d339299514b</v>
       </c>
       <c r="B3" t="str">
-        <v>Client1 Client1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>5a9eb30c5e35871b15fdbe30</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Client2 Client2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>5aad4be6fb3eeb61cf09ee32</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Cu dan  1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5aad4c6609d5c46214eda33b</v>
-      </c>
-      <c r="B6" t="str">
-        <v>cudan 2 cudan2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>5aad4dd0bb5a8d62941ef24d</v>
-      </c>
-      <c r="B7" t="str">
-        <v>cudan 3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>5aad4e340116bd6333a179d1</v>
-      </c>
-      <c r="B8" t="str">
-        <v>cudan 4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>5aad4e7a0419486368d668f2</v>
-      </c>
-      <c r="B9" t="str">
-        <v>cudan5 cudan5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>5aad4f441fc5be6401d7d0ee</v>
-      </c>
-      <c r="B10" t="str">
-        <v>fdafadf fdafa</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>5aad4f8dc93218642f6e3d1d</v>
-      </c>
-      <c r="B11" t="str">
-        <v>cudan 6</v>
+        <v>Super Admin</v>
+      </c>
+      <c r="C3" t="str">
+        <v>01648245088</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/media/files/import-template/building-group-import.xlsx
+++ b/media/files/import-template/building-group-import.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,29 +419,18 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>5abbca6d4abc5830d5261c2d</v>
+        <v>5b02f7ab4eb3b051e6a483e0</v>
       </c>
       <c r="B2" t="str">
-        <v>Nguyễn Viết Thịnh</v>
+        <v>Nguyễn Thọ Nhất</v>
       </c>
       <c r="C2" t="str">
-        <v>01626878789</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>5abbce6759c59d339299514b</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Super Admin</v>
-      </c>
-      <c r="C3" t="str">
-        <v>01648245088</v>
+        <v>0909703073</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>